--- a/data/geum/수질/대청댐2_2020.xlsx
+++ b/data/geum/수질/대청댐2_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\geum\수질\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="104">
   <si>
     <t>dt</t>
   </si>
@@ -324,32 +331,37 @@
   </si>
   <si>
     <t>2020-09-16 12:00</t>
-  </si>
-  <si>
-    <t>2020-09-24 12:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -367,7 +379,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -375,16 +393,24 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,10 +419,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -642,83 +668,83 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.89" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.78" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.22" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.44" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.78" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.78" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.25" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -935,13 +961,13 @@
         <v>68</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.043999999999999997</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AD2" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE2" s="4">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF2" s="4">
         <v>1.8</v>
@@ -950,7 +976,7 @@
         <v>161</v>
       </c>
       <c r="AH2" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI2" s="4">
         <v>1.2</v>
@@ -962,7 +988,7 @@
         <v>1.899</v>
       </c>
       <c r="AL2" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AN2" s="4">
         <v>6.5</v>
@@ -977,13 +1003,13 @@
         <v>1.5589999999999999</v>
       </c>
       <c r="AR2" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS2" s="4">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1012,16 +1038,16 @@
         <v>68</v>
       </c>
       <c r="AC3" s="3">
-        <v>0.044999999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AD3" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE3" s="4">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AF3" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG3">
         <v>161</v>
@@ -1033,34 +1059,34 @@
         <v>1.2</v>
       </c>
       <c r="AJ3" s="4">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AK3" s="3">
         <v>1.744</v>
       </c>
       <c r="AL3" s="3">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AN3" s="4">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="AO3" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AP3" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ3" s="3">
         <v>1.532</v>
       </c>
       <c r="AR3" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS3" s="4">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1089,25 +1115,25 @@
         <v>68</v>
       </c>
       <c r="AC4" s="3">
-        <v>0.036999999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AD4" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE4" s="4">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="AF4" s="4">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AG4">
         <v>193</v>
       </c>
       <c r="AH4" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI4" s="4">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AJ4" s="4">
         <v>2.2999999999999998</v>
@@ -1116,7 +1142,7 @@
         <v>1.7370000000000001</v>
       </c>
       <c r="AL4" s="3">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AN4" s="4">
         <v>4.4000000000000004</v>
@@ -1125,19 +1151,19 @@
         <v>2</v>
       </c>
       <c r="AP4" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ4" s="3">
         <v>1.4670000000000001</v>
       </c>
       <c r="AR4" s="3">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS4" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1166,13 +1192,13 @@
         <v>74</v>
       </c>
       <c r="AC5" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD5" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE5" s="4">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF5" s="4">
         <v>2.2999999999999998</v>
@@ -1193,7 +1219,7 @@
         <v>1.8120000000000001</v>
       </c>
       <c r="AL5" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AN5" s="4">
         <v>1.2</v>
@@ -1208,13 +1234,13 @@
         <v>1.55</v>
       </c>
       <c r="AR5" s="3">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS5" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1243,13 +1269,13 @@
         <v>74</v>
       </c>
       <c r="AC6" s="3">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD6" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE6" s="4">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF6" s="4">
         <v>2.2000000000000002</v>
@@ -1261,16 +1287,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI6" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ6" s="4">
-        <v>10.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="AK6" s="3">
         <v>1.6839999999999999</v>
       </c>
       <c r="AL6" s="3">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AN6">
         <v>4</v>
@@ -1279,19 +1305,19 @@
         <v>1.2</v>
       </c>
       <c r="AP6" s="3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ6" s="3">
         <v>1.3180000000000001</v>
       </c>
       <c r="AR6" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS6" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1320,13 +1346,13 @@
         <v>74</v>
       </c>
       <c r="AC7" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD7" s="4">
         <v>1.2</v>
       </c>
       <c r="AE7" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF7">
         <v>2</v>
@@ -1341,34 +1367,34 @@
         <v>1.2</v>
       </c>
       <c r="AJ7" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AK7" s="3">
         <v>2.032</v>
       </c>
       <c r="AL7" s="3">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AN7" s="4">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AO7" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="AP7" s="3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ7" s="3">
         <v>1.833</v>
       </c>
       <c r="AR7" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1397,13 +1423,13 @@
         <v>78</v>
       </c>
       <c r="AC8" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD8">
         <v>1</v>
       </c>
       <c r="AE8" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF8" s="4">
         <v>1.7</v>
@@ -1412,10 +1438,10 @@
         <v>169</v>
       </c>
       <c r="AH8" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI8" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ8" s="4">
         <v>12.1</v>
@@ -1424,7 +1450,7 @@
         <v>1.9530000000000001</v>
       </c>
       <c r="AL8" s="3">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AN8" s="4">
         <v>4.4000000000000004</v>
@@ -1433,19 +1459,19 @@
         <v>1.2</v>
       </c>
       <c r="AP8" s="3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ8" s="3">
         <v>1.7050000000000001</v>
       </c>
       <c r="AR8" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS8" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1474,7 +1500,7 @@
         <v>78</v>
       </c>
       <c r="AC9" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -1483,7 +1509,7 @@
         <v>7.5</v>
       </c>
       <c r="AF9" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AG9">
         <v>170</v>
@@ -1501,28 +1527,28 @@
         <v>1.9430000000000001</v>
       </c>
       <c r="AL9" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AN9" s="4">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AO9" s="4">
         <v>1.5</v>
       </c>
       <c r="AP9" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ9" s="3">
         <v>1.5760000000000001</v>
       </c>
       <c r="AR9" s="3">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS9" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1551,55 +1577,55 @@
         <v>78</v>
       </c>
       <c r="AC10" s="3">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AD10">
         <v>1</v>
       </c>
       <c r="AE10" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF10" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AG10">
         <v>179</v>
       </c>
       <c r="AH10" s="4">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI10" s="4">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ10" s="4">
-        <v>9.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="AK10" s="3">
         <v>2.048</v>
       </c>
       <c r="AL10" s="3">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AN10" s="4">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AO10" s="4">
         <v>1.3</v>
       </c>
       <c r="AP10" s="3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ10" s="3">
         <v>1.7450000000000001</v>
       </c>
       <c r="AR10" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS10">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1628,22 +1654,22 @@
         <v>82</v>
       </c>
       <c r="AC11" s="3">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD11" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE11" s="4">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF11" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AG11">
         <v>170</v>
       </c>
       <c r="AH11" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI11" s="4">
         <v>1.2</v>
@@ -1655,28 +1681,28 @@
         <v>1.889</v>
       </c>
       <c r="AL11" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AN11" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AO11" s="4">
         <v>1.2</v>
       </c>
       <c r="AP11" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ11" s="3">
         <v>1.5740000000000001</v>
       </c>
       <c r="AR11" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AS11">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1705,25 +1731,25 @@
         <v>82</v>
       </c>
       <c r="AC12" s="3">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD12" s="4">
         <v>1.2</v>
       </c>
       <c r="AE12" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF12" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AG12">
         <v>170</v>
       </c>
       <c r="AH12" s="4">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI12" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ12" s="4">
         <v>10.199999999999999</v>
@@ -1732,16 +1758,16 @@
         <v>1.8759999999999999</v>
       </c>
       <c r="AL12" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AN12" s="4">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="AO12" s="4">
         <v>1.3</v>
       </c>
       <c r="AP12" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ12" s="3">
         <v>1.6339999999999999</v>
@@ -1750,10 +1776,10 @@
         <v>0.01</v>
       </c>
       <c r="AS12" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -1782,13 +1808,13 @@
         <v>82</v>
       </c>
       <c r="AC13" s="3">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD13" s="4">
         <v>1.2</v>
       </c>
       <c r="AE13" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF13" s="4">
         <v>1.8</v>
@@ -1797,28 +1823,28 @@
         <v>173</v>
       </c>
       <c r="AH13" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI13" s="4">
         <v>1.2</v>
       </c>
       <c r="AJ13" s="4">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="AK13" s="3">
         <v>1.998</v>
       </c>
       <c r="AL13" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AN13" s="4">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AO13">
         <v>1</v>
       </c>
       <c r="AP13" s="3">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ13" s="3">
         <v>1.5309999999999999</v>
@@ -1827,10 +1853,10 @@
         <v>0.01</v>
       </c>
       <c r="AS13" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1859,10 +1885,10 @@
         <v>86</v>
       </c>
       <c r="AC14" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AD14" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE14" s="4">
         <v>8.3000000000000007</v>
@@ -1880,10 +1906,10 @@
         <v>1.2</v>
       </c>
       <c r="AJ14" s="4">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AK14" s="5">
-        <v>1.8500000000000001</v>
+        <v>1.85</v>
       </c>
       <c r="AL14" s="5">
         <v>0.01</v>
@@ -1895,7 +1921,7 @@
         <v>1.2</v>
       </c>
       <c r="AP14" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ14" s="3">
         <v>1.583</v>
@@ -1907,7 +1933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -1936,34 +1962,34 @@
         <v>86</v>
       </c>
       <c r="AC15" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AD15" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE15" s="4">
         <v>7.5</v>
       </c>
       <c r="AF15" s="4">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG15">
         <v>171</v>
       </c>
       <c r="AH15" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI15" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ15" s="4">
         <v>10.1</v>
       </c>
       <c r="AK15" s="5">
-        <v>1.8700000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="AL15" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AN15" s="4">
         <v>4.0999999999999996</v>
@@ -1972,7 +1998,7 @@
         <v>1.7</v>
       </c>
       <c r="AP15" s="3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ15" s="3">
         <v>1.6140000000000001</v>
@@ -1981,10 +2007,10 @@
         <v>0.01</v>
       </c>
       <c r="AS15" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -2019,7 +2045,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE16" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF16" s="4">
         <v>2.2000000000000002</v>
@@ -2040,28 +2066,28 @@
         <v>2.4569999999999999</v>
       </c>
       <c r="AL16" s="3">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AN16" s="4">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="AO16" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AP16" s="3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ16" s="3">
         <v>2.206</v>
       </c>
       <c r="AR16" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AS16" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2090,13 +2116,13 @@
         <v>90</v>
       </c>
       <c r="AC17" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD17" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE17" s="4">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AF17">
         <v>2</v>
@@ -2117,28 +2143,28 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="AL17" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AN17" s="4">
         <v>18.5</v>
       </c>
       <c r="AO17" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AP17" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ17" s="3">
         <v>1.8069999999999999</v>
       </c>
       <c r="AR17" s="3">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS17" s="4">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -2173,10 +2199,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE18" s="4">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF18" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG18">
         <v>173</v>
@@ -2185,16 +2211,16 @@
         <v>1</v>
       </c>
       <c r="AI18" s="4">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ18" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AK18" s="3">
         <v>2.0329999999999999</v>
       </c>
       <c r="AL18" s="3">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AN18">
         <v>4</v>
@@ -2203,19 +2229,19 @@
         <v>1.7</v>
       </c>
       <c r="AP18" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AQ18" s="3">
         <v>1.7250000000000001</v>
       </c>
       <c r="AR18" s="3">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS18" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -2244,16 +2270,16 @@
         <v>90</v>
       </c>
       <c r="AC19" s="3">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AD19" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="AE19" s="4">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF19" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG19">
         <v>174</v>
@@ -2274,25 +2300,25 @@
         <v>0.01</v>
       </c>
       <c r="AN19" s="4">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AO19" s="4">
         <v>1.2</v>
       </c>
       <c r="AP19" s="3">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ19" s="3">
         <v>1.734</v>
       </c>
       <c r="AR19" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS19" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -2321,13 +2347,13 @@
         <v>94</v>
       </c>
       <c r="AC20" s="3">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AD20" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE20" s="4">
-        <v>9.0999999999999996</v>
+        <v>9.1</v>
       </c>
       <c r="AF20" s="4">
         <v>2.2000000000000002</v>
@@ -2339,7 +2365,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI20" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ20" s="4">
         <v>10.1</v>
@@ -2348,28 +2374,28 @@
         <v>2.1880000000000002</v>
       </c>
       <c r="AL20" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AN20" s="4">
-        <v>21.100000000000001</v>
+        <v>21.1</v>
       </c>
       <c r="AO20" s="4">
         <v>1.2</v>
       </c>
       <c r="AP20" s="3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ20" s="3">
         <v>1.8240000000000001</v>
       </c>
       <c r="AR20" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS20" s="4">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2404,10 +2430,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE21" s="4">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF21" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG21">
         <v>175</v>
@@ -2425,28 +2451,28 @@
         <v>1.8169999999999999</v>
       </c>
       <c r="AL21" s="3">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AN21" s="4">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="AO21" s="4">
         <v>1.7</v>
       </c>
       <c r="AP21" s="3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ21" s="3">
         <v>1.456</v>
       </c>
       <c r="AR21" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AS21" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2475,13 +2501,13 @@
         <v>94</v>
       </c>
       <c r="AC22" s="3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AD22">
         <v>1</v>
       </c>
       <c r="AE22" s="4">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF22" s="4">
         <v>2.5</v>
@@ -2493,7 +2519,7 @@
         <v>1.3</v>
       </c>
       <c r="AI22" s="4">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ22" s="4">
         <v>4.5</v>
@@ -2502,28 +2528,28 @@
         <v>1.9430000000000001</v>
       </c>
       <c r="AL22" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AN22" s="4">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AO22" s="4">
         <v>1.3</v>
       </c>
       <c r="AP22" s="3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ22" s="3">
         <v>1.748</v>
       </c>
       <c r="AR22" s="3">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS22" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2552,7 +2578,7 @@
         <v>98</v>
       </c>
       <c r="AC23" s="3">
-        <v>0.036999999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AD23" s="4">
         <v>1.5</v>
@@ -2561,46 +2587,46 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF23" s="4">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AG23">
         <v>121</v>
       </c>
       <c r="AH23" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AI23" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ23" s="4">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AK23" s="3">
         <v>2.278</v>
       </c>
       <c r="AL23" s="3">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AN23" s="4">
-        <v>22.899999999999999</v>
+        <v>22.9</v>
       </c>
       <c r="AO23" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="AP23" s="3">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ23" s="3">
         <v>2.097</v>
       </c>
       <c r="AR23" s="3">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AS23" s="4">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2629,7 +2655,7 @@
         <v>98</v>
       </c>
       <c r="AC24" s="3">
-        <v>0.037999999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AD24" s="4">
         <v>1.1000000000000001</v>
@@ -2638,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="AF24" s="4">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG24">
         <v>93</v>
@@ -2647,16 +2673,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AI24" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ24" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AK24" s="3">
         <v>1.9339999999999999</v>
       </c>
       <c r="AL24" s="3">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN24">
         <v>15</v>
@@ -2665,19 +2691,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AP24" s="3">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AQ24" s="3">
         <v>1.6379999999999999</v>
       </c>
       <c r="AR24" s="3">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AS24" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -2706,16 +2732,16 @@
         <v>98</v>
       </c>
       <c r="AC25" s="3">
-        <v>0.036999999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AD25" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="AE25" s="4">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF25" s="4">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AG25">
         <v>97</v>
@@ -2727,13 +2753,13 @@
         <v>1.2</v>
       </c>
       <c r="AJ25" s="4">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AK25" s="3">
         <v>1.9379999999999999</v>
       </c>
       <c r="AL25" s="3">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AN25">
         <v>14</v>
@@ -2742,7 +2768,7 @@
         <v>2.5</v>
       </c>
       <c r="AP25" s="3">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ25" s="3">
         <v>1.7869999999999999</v>
@@ -2751,10 +2777,10 @@
         <v>0.01</v>
       </c>
       <c r="AS25" s="4">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -2783,13 +2809,13 @@
         <v>102</v>
       </c>
       <c r="AC26" s="3">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD26" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="AE26" s="4">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AF26" s="4">
         <v>2.2000000000000002</v>
@@ -2801,37 +2827,37 @@
         <v>1.2</v>
       </c>
       <c r="AI26" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ26" s="4">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AK26" s="3">
         <v>2.0369999999999999</v>
       </c>
       <c r="AL26" s="5">
-        <v>0.029999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AN26" s="4">
-        <v>24.600000000000001</v>
+        <v>24.6</v>
       </c>
       <c r="AO26" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="AP26" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AQ26" s="3">
         <v>1.8049999999999999</v>
       </c>
       <c r="AR26" s="3">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AS26" s="4">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2860,13 +2886,13 @@
         <v>102</v>
       </c>
       <c r="AC27" s="3">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AD27" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="AE27" s="4">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="AF27">
         <v>2</v>
@@ -2881,13 +2907,13 @@
         <v>1.2</v>
       </c>
       <c r="AJ27" s="4">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AK27" s="3">
         <v>2.4590000000000001</v>
       </c>
       <c r="AL27" s="3">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AN27">
         <v>15</v>
@@ -2896,96 +2922,20 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AP27" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AQ27" s="3">
         <v>2.391</v>
       </c>
       <c r="AR27" s="3">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AS27">
         <v>2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2">
-        <v>36.476944000000003</v>
-      </c>
-      <c r="F28" s="2">
-        <v>127.48483299999999</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="4">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>2.3999999999999999</v>
-      </c>
-      <c r="AG28">
-        <v>105</v>
-      </c>
-      <c r="AH28" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="AI28" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="AJ28" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>2.3410000000000002</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>0.012</v>
-      </c>
-      <c r="AN28" s="4">
-        <v>13.300000000000001</v>
-      </c>
-      <c r="AO28">
-        <v>4</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="AQ28" s="3">
-        <v>1.9219999999999999</v>
-      </c>
-      <c r="AR28" s="3">
-        <v>0.0089999999999999993</v>
-      </c>
-      <c r="AS28" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="29"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>